--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/New7VIN_CA_SELECT.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/New7VIN_CA_SELECT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gp8john\Desktop\SUITE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gp8john\Documents\CSAA\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,8 +23,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Petrenko, Viktor (C)</author>
+  </authors>
+  <commentList>
+    <comment ref="AA6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Petrenko, Viktor (C):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+User for MSRP PAS-730</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="81">
   <si>
     <t>VIN</t>
   </si>
@@ -225,13 +259,55 @@
   </si>
   <si>
     <t>GGGNK2CC&amp;F</t>
+  </si>
+  <si>
+    <t>7MSRP15H&amp;V</t>
+  </si>
+  <si>
+    <t>VOLKSWAGEN</t>
+  </si>
+  <si>
+    <t>GOLF</t>
+  </si>
+  <si>
+    <t>HATCHBACK 4 DOOR</t>
+  </si>
+  <si>
+    <t>8L V12</t>
+  </si>
+  <si>
+    <t>4WD</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>BBBKN3DD&amp;E</t>
+  </si>
+  <si>
+    <t>MAKEPAS2713ENDOR</t>
+  </si>
+  <si>
+    <t>MODELPAS2713ENDOR</t>
+  </si>
+  <si>
+    <t>SERIESPAS2713ENDOR</t>
+  </si>
+  <si>
+    <t>BODYTYPEPAS2713ENDOR</t>
+  </si>
+  <si>
+    <t>BODYSTYLEPAS2713ENDOR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,6 +327,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -566,11 +655,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1169,8 +1258,238 @@
         <v>50</v>
       </c>
     </row>
+    <row r="6" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="3">
+        <v>88888</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" s="3">
+        <v>12</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>214</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="S6" s="3">
+        <v>4</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V6" s="3">
+        <v>2</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>33</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>43</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI6" s="3">
+        <v>20000101</v>
+      </c>
+      <c r="AJ6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL6" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7">
+        <v>2018</v>
+      </c>
+      <c r="D7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7">
+        <v>88888</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" t="s">
+        <v>71</v>
+      </c>
+      <c r="O7">
+        <v>12</v>
+      </c>
+      <c r="P7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7">
+        <v>214</v>
+      </c>
+      <c r="R7" t="s">
+        <v>72</v>
+      </c>
+      <c r="S7">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s">
+        <v>33</v>
+      </c>
+      <c r="U7" t="s">
+        <v>34</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7" t="s">
+        <v>35</v>
+      </c>
+      <c r="X7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA7">
+        <v>33</v>
+      </c>
+      <c r="AB7">
+        <v>43</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI7">
+        <v>20000101</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/New7VIN_CA_SELECT.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/New7VIN_CA_SELECT.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gp8john\Documents\CSAA\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT-repo\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9732"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -368,13 +368,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -659,34 +662,34 @@
   <dimension ref="A1:AL7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" customWidth="1"/>
-    <col min="19" max="19" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.85546875" customWidth="1"/>
-    <col min="23" max="23" width="22.28515625" customWidth="1"/>
-    <col min="24" max="24" width="20.85546875" customWidth="1"/>
-    <col min="25" max="25" width="34.7109375" customWidth="1"/>
-    <col min="26" max="26" width="8.28515625" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" customWidth="1"/>
-    <col min="28" max="29" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="23.5546875" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" customWidth="1"/>
+    <col min="19" max="19" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.88671875" customWidth="1"/>
+    <col min="23" max="23" width="22.33203125" customWidth="1"/>
+    <col min="24" max="24" width="20.88671875" customWidth="1"/>
+    <col min="25" max="25" width="34.6640625" customWidth="1"/>
+    <col min="26" max="26" width="8.33203125" customWidth="1"/>
+    <col min="27" max="27" width="14.88671875" customWidth="1"/>
+    <col min="28" max="29" width="16.33203125" customWidth="1"/>
     <col min="35" max="35" width="10" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="21.42578125" customWidth="1"/>
+    <col min="38" max="38" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -802,7 +805,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -916,7 +919,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -1030,7 +1033,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -1144,7 +1147,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -1258,7 +1261,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>67</v>
       </c>
@@ -1371,14 +1374,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>75</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>2018</v>
       </c>
       <c r="D7" t="s">

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/New7VIN_CA_SELECT.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/New7VIN_CA_SELECT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT-repo\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CSAA\CODE\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
     <author>Petrenko, Viktor (C)</author>
   </authors>
   <commentList>
-    <comment ref="AA6" authorId="0" shapeId="0">
+    <comment ref="Y6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="75">
   <si>
     <t>VIN</t>
   </si>
@@ -66,9 +66,6 @@
     <t>VERSION</t>
   </si>
   <si>
-    <t>YEAR</t>
-  </si>
-  <si>
     <t>MAKE</t>
   </si>
   <si>
@@ -174,9 +171,6 @@
     <t>B-IMMOBILIZER/KEYLSS ENTRY/ALARM</t>
   </si>
   <si>
-    <t>K</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -216,12 +210,6 @@
     <t>TEST</t>
   </si>
   <si>
-    <t>STAT</t>
-  </si>
-  <si>
-    <t>CHOICE_TIER</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -240,9 +228,6 @@
     <t>D</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>invalidVIN</t>
   </si>
   <si>
@@ -277,9 +262,6 @@
   </si>
   <si>
     <t>4WD</t>
-  </si>
-  <si>
-    <t>RT</t>
   </si>
   <si>
     <t>E</t>
@@ -368,16 +350,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -659,37 +638,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL7"/>
+  <dimension ref="A1:AI7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AC1" activeCellId="2" sqref="C7 Z1:Z7 AC1:AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.6640625" customWidth="1"/>
     <col min="2" max="2" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="23.5546875" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.6640625" customWidth="1"/>
-    <col min="19" max="19" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.88671875" customWidth="1"/>
-    <col min="23" max="23" width="22.33203125" customWidth="1"/>
-    <col min="24" max="24" width="20.88671875" customWidth="1"/>
-    <col min="25" max="25" width="34.6640625" customWidth="1"/>
-    <col min="26" max="26" width="8.33203125" customWidth="1"/>
-    <col min="27" max="27" width="14.88671875" customWidth="1"/>
-    <col min="28" max="29" width="16.33203125" customWidth="1"/>
-    <col min="35" max="35" width="10" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" customWidth="1"/>
+    <col min="18" max="18" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.88671875" customWidth="1"/>
+    <col min="22" max="22" width="22.33203125" customWidth="1"/>
+    <col min="23" max="23" width="20.88671875" customWidth="1"/>
+    <col min="24" max="24" width="34.6640625" customWidth="1"/>
+    <col min="25" max="25" width="14.88671875" customWidth="1"/>
+    <col min="26" max="26" width="16.33203125" customWidth="1"/>
+    <col min="32" max="32" width="10" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -766,111 +744,102 @@
         <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="AD1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL1" s="1" t="s">
+      <c r="G2" s="2">
+        <v>53080</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2018</v>
-      </c>
-      <c r="D2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="2">
-        <v>53080</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="2">
+        <v>8</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" s="2">
-        <v>8</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="2">
+        <v>214</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="2">
-        <v>214</v>
-      </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="2">
+        <v>2</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="S2" s="2">
-        <v>2</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="2">
+        <v>2</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="V2" s="2">
-        <v>2</v>
       </c>
       <c r="W2" s="2" t="s">
         <v>35</v>
@@ -878,113 +847,106 @@
       <c r="X2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Y2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA2" s="2">
+      <c r="Y2" s="2">
         <v>41</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="Z2" s="2">
         <v>41</v>
       </c>
-      <c r="AC2" s="2"/>
+      <c r="AA2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="AD2" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI2">
+        <v>50</v>
+      </c>
+      <c r="AF2">
         <v>20010101</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>50</v>
+      <c r="AG2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2018</v>
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
         <v>56</v>
       </c>
-      <c r="F3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2">
+        <v>53080</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="2">
-        <v>53080</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="2">
+        <v>8</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" s="2">
-        <v>8</v>
-      </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="2">
+        <v>214</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q3" s="2">
-        <v>214</v>
-      </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" s="2">
+        <v>2</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="S3" s="2">
-        <v>2</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="U3" s="2">
+        <v>2</v>
+      </c>
+      <c r="V3" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="V3" s="2">
-        <v>2</v>
       </c>
       <c r="W3" s="2" t="s">
         <v>35</v>
@@ -992,113 +954,106 @@
       <c r="X3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Y3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA3" s="2">
+      <c r="Y3" s="2">
         <v>41</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="Z3" s="2">
         <v>41</v>
       </c>
-      <c r="AC3" s="2"/>
+      <c r="AA3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="AD3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF3">
+        <v>20000101</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2">
+        <v>53080</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AE3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI3">
-        <v>20000101</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2018</v>
-      </c>
-      <c r="D4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="2">
-        <v>53080</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K4" s="2" t="s">
+      <c r="N4" s="2">
+        <v>8</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O4" s="2">
-        <v>8</v>
-      </c>
-      <c r="P4" s="2" t="s">
+      <c r="P4" s="2">
+        <v>214</v>
+      </c>
+      <c r="Q4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q4" s="2">
-        <v>214</v>
-      </c>
-      <c r="R4" s="2" t="s">
+      <c r="R4" s="2">
+        <v>2</v>
+      </c>
+      <c r="S4" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="S4" s="2">
-        <v>2</v>
       </c>
       <c r="T4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="U4" s="2">
+        <v>2</v>
+      </c>
+      <c r="V4" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="V4" s="2">
-        <v>2</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>35</v>
@@ -1106,113 +1061,106 @@
       <c r="X4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Y4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA4" s="2">
+      <c r="Y4" s="2">
         <v>41</v>
       </c>
-      <c r="AB4" s="2">
+      <c r="Z4" s="2">
         <v>41</v>
       </c>
-      <c r="AC4" s="2"/>
+      <c r="AA4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="AD4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF4">
+        <v>20150101</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="2">
+        <v>53080</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AE4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI4">
-        <v>20150101</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2018</v>
-      </c>
-      <c r="D5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="2">
-        <v>53080</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" s="2" t="s">
+      <c r="N5" s="2">
+        <v>8</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L5" t="s">
-        <v>51</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O5" s="2">
-        <v>8</v>
-      </c>
-      <c r="P5" s="2" t="s">
+      <c r="P5" s="2">
+        <v>214</v>
+      </c>
+      <c r="Q5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q5" s="2">
-        <v>214</v>
-      </c>
-      <c r="R5" s="2" t="s">
+      <c r="R5" s="2">
+        <v>2</v>
+      </c>
+      <c r="S5" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="S5" s="2">
-        <v>2</v>
       </c>
       <c r="T5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="U5" s="2" t="s">
+      <c r="U5" s="2">
+        <v>2</v>
+      </c>
+      <c r="V5" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="V5" s="2">
-        <v>2</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>35</v>
@@ -1220,113 +1168,106 @@
       <c r="X5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Y5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z5" s="2" t="s">
+      <c r="Y5" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF5">
+        <v>20190101</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AA5" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB5" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI5">
-        <v>20190101</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="C6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="3">
+        <v>88888</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="N6" s="3">
+        <v>12</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="3">
+        <v>214</v>
+      </c>
+      <c r="Q6" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2018</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H6" s="3">
-        <v>88888</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="O6" s="3">
-        <v>12</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>214</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="S6" s="3">
+      <c r="R6" s="3">
         <v>4</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="T6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="U6" s="3">
+        <v>2</v>
+      </c>
+      <c r="V6" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="V6" s="3">
-        <v>2</v>
       </c>
       <c r="W6" s="3" t="s">
         <v>35</v>
@@ -1334,112 +1275,106 @@
       <c r="X6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Y6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z6" s="3" t="s">
+      <c r="Y6" s="3">
+        <v>33</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>43</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>20000101</v>
+      </c>
+      <c r="AG6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI6" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7">
+        <v>88888</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
         <v>73</v>
       </c>
-      <c r="AA6" s="3">
-        <v>33</v>
-      </c>
-      <c r="AB6" s="3">
-        <v>43</v>
-      </c>
-      <c r="AD6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE6" s="3" t="s">
+      <c r="J7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" t="s">
         <v>74</v>
       </c>
-      <c r="AF6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI6" s="3">
-        <v>20000101</v>
-      </c>
-      <c r="AJ6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL6" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="4">
-        <v>2018</v>
-      </c>
-      <c r="D7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H7">
-        <v>88888</v>
-      </c>
-      <c r="I7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K7" t="s">
-        <v>70</v>
-      </c>
       <c r="L7" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="M7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" t="s">
-        <v>71</v>
-      </c>
-      <c r="O7">
+        <v>66</v>
+      </c>
+      <c r="N7">
         <v>12</v>
       </c>
-      <c r="P7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q7">
+      <c r="O7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7">
         <v>214</v>
       </c>
-      <c r="R7" t="s">
-        <v>72</v>
-      </c>
-      <c r="S7">
+      <c r="Q7" t="s">
+        <v>67</v>
+      </c>
+      <c r="R7">
         <v>4</v>
+      </c>
+      <c r="S7" t="s">
+        <v>32</v>
       </c>
       <c r="T7" t="s">
         <v>33</v>
       </c>
-      <c r="U7" t="s">
+      <c r="U7">
+        <v>2</v>
+      </c>
+      <c r="V7" t="s">
         <v>34</v>
-      </c>
-      <c r="V7">
-        <v>2</v>
       </c>
       <c r="W7" t="s">
         <v>35</v>
@@ -1447,47 +1382,38 @@
       <c r="X7" t="s">
         <v>36</v>
       </c>
-      <c r="Y7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA7">
+      <c r="Y7">
         <v>33</v>
       </c>
-      <c r="AB7">
+      <c r="Z7">
         <v>43</v>
       </c>
+      <c r="AA7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>68</v>
+      </c>
       <c r="AC7" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="AD7" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="AE7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>74</v>
+        <v>68</v>
+      </c>
+      <c r="AF7">
+        <v>20000101</v>
       </c>
       <c r="AG7" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AH7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI7">
-        <v>20000101</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>50</v>
+        <v>37</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/New7VIN_CA_SELECT.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/New7VIN_CA_SELECT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CSAA\CODE\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT-repo\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,42 +23,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Petrenko, Viktor (C)</author>
-  </authors>
-  <commentList>
-    <comment ref="Y6" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Petrenko, Viktor (C):</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-User for MSRP PAS-730</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="62">
   <si>
     <t>VIN</t>
   </si>
@@ -244,52 +210,13 @@
   </si>
   <si>
     <t>GGGNK2CC&amp;F</t>
-  </si>
-  <si>
-    <t>7MSRP15H&amp;V</t>
-  </si>
-  <si>
-    <t>VOLKSWAGEN</t>
-  </si>
-  <si>
-    <t>GOLF</t>
-  </si>
-  <si>
-    <t>HATCHBACK 4 DOOR</t>
-  </si>
-  <si>
-    <t>8L V12</t>
-  </si>
-  <si>
-    <t>4WD</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>BBBKN3DD&amp;E</t>
-  </si>
-  <si>
-    <t>MAKEPAS2713ENDOR</t>
-  </si>
-  <si>
-    <t>MODELPAS2713ENDOR</t>
-  </si>
-  <si>
-    <t>SERIESPAS2713ENDOR</t>
-  </si>
-  <si>
-    <t>BODYTYPEPAS2713ENDOR</t>
-  </si>
-  <si>
-    <t>BODYSTYLEPAS2713ENDOR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,19 +236,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -637,11 +551,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AI5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AC1" activeCellId="2" sqref="C7 Z1:Z7 AC1:AC7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1202,223 +1116,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="3">
-        <v>88888</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N6" s="3">
-        <v>12</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" s="3">
-        <v>214</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="R6" s="3">
-        <v>4</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="U6" s="3">
-        <v>2</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y6" s="3">
-        <v>33</v>
-      </c>
-      <c r="Z6" s="3">
-        <v>43</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC6" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD6" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE6" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF6" s="3">
-        <v>20000101</v>
-      </c>
-      <c r="AG6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI6" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7">
-        <v>88888</v>
-      </c>
-      <c r="H7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" t="s">
-        <v>73</v>
-      </c>
-      <c r="J7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" t="s">
-        <v>66</v>
-      </c>
-      <c r="N7">
-        <v>12</v>
-      </c>
-      <c r="O7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P7">
-        <v>214</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>67</v>
-      </c>
-      <c r="R7">
-        <v>4</v>
-      </c>
-      <c r="S7" t="s">
-        <v>32</v>
-      </c>
-      <c r="T7" t="s">
-        <v>33</v>
-      </c>
-      <c r="U7">
-        <v>2</v>
-      </c>
-      <c r="V7" t="s">
-        <v>34</v>
-      </c>
-      <c r="W7" t="s">
-        <v>35</v>
-      </c>
-      <c r="X7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y7">
-        <v>33</v>
-      </c>
-      <c r="Z7">
-        <v>43</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF7">
-        <v>20000101</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>48</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>